--- a/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6651208-DDA7-4405-897C-F118AA8AC905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF27637B-067A-48F5-B29B-05EF9C6E03F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C5D4276-4F96-4C4B-920A-BD318961DB30}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B4BB94C-4D9B-43A9-BA1F-5C0B12F5600B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="314">
   <si>
     <t>Población según las horas que duerme habitualmente al dia y los fines de semana en 2023 (Tasa respuesta: 97,07%)</t>
   </si>
@@ -86,877 +86,886 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,38%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,5%</t>
@@ -965,7 +974,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1380,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716CB3BD-8482-4618-8359-7EB3D2DB0F76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF363C-E341-42E8-9CCA-3382A205073E}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,10 +1633,10 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1636,13 +1645,13 @@
         <v>6012</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,10 +1699,10 @@
         <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,13 +1717,13 @@
         <v>10367</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -1723,13 +1732,13 @@
         <v>14936</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -1738,13 +1747,13 @@
         <v>25303</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,13 +1768,13 @@
         <v>39494</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -1774,13 +1783,13 @@
         <v>54382</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M9" s="7">
         <v>120</v>
@@ -1789,13 +1798,13 @@
         <v>93876</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1819,13 @@
         <v>192222</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -1825,13 +1834,13 @@
         <v>226979</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>587</v>
@@ -1840,13 +1849,13 @@
         <v>419201</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1870,13 @@
         <v>142092</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>426</v>
@@ -1876,13 +1885,13 @@
         <v>240123</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -1891,13 +1900,13 @@
         <v>382215</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1921,13 @@
         <v>90186</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>308</v>
@@ -1927,13 +1936,13 @@
         <v>169473</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>428</v>
@@ -1942,13 +1951,13 @@
         <v>259659</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1972,13 @@
         <v>36417</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -1978,13 +1987,13 @@
         <v>57182</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -1993,13 +2002,13 @@
         <v>93598</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2023,13 @@
         <v>5477</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2029,13 +2038,13 @@
         <v>22767</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -2044,13 +2053,13 @@
         <v>28244</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2074,13 @@
         <v>4092</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -2086,7 +2095,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -2095,13 +2104,13 @@
         <v>8846</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2125,13 @@
         <v>1415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2131,13 +2140,13 @@
         <v>571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2146,13 +2155,13 @@
         <v>1986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2176,13 @@
         <v>525560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>1366</v>
@@ -2182,13 +2191,13 @@
         <v>797822</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>2038</v>
@@ -2197,18 +2206,18 @@
         <v>1323382</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B18" s="5">
         <v>15</v>
@@ -2220,13 +2229,13 @@
         <v>1557</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2241,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -2250,13 +2259,13 @@
         <v>1557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2280,13 @@
         <v>1099</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2292,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2307,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2331,13 @@
         <v>4236</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2337,13 +2346,13 @@
         <v>5241</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2352,13 +2361,13 @@
         <v>9477</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2382,13 @@
         <v>2328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2388,13 +2397,13 @@
         <v>3989</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2403,13 +2412,13 @@
         <v>6317</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2433,13 @@
         <v>95070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -2439,13 +2448,13 @@
         <v>44460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -2454,13 +2463,13 @@
         <v>139530</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2484,13 @@
         <v>211594</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -2490,13 +2499,13 @@
         <v>187583</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>349</v>
@@ -2505,13 +2514,13 @@
         <v>399177</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2535,13 @@
         <v>816829</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>953</v>
@@ -2541,13 +2550,13 @@
         <v>762328</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>1661</v>
@@ -2556,13 +2565,13 @@
         <v>1579158</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2586,13 @@
         <v>572346</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>883</v>
@@ -2592,13 +2601,13 @@
         <v>612025</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>1503</v>
@@ -2607,13 +2616,13 @@
         <v>1184371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2637,13 @@
         <v>273223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>472</v>
@@ -2643,13 +2652,13 @@
         <v>391772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>783</v>
@@ -2658,13 +2667,13 @@
         <v>664995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2688,13 @@
         <v>68902</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -2694,13 +2703,13 @@
         <v>121124</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M27" s="7">
         <v>272</v>
@@ -2709,13 +2718,13 @@
         <v>190025</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2739,13 @@
         <v>25880</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -2745,13 +2754,13 @@
         <v>36520</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -2760,13 +2769,13 @@
         <v>62400</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2790,13 @@
         <v>3574</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2796,13 +2805,13 @@
         <v>5210</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2817,7 +2826,7 @@
         <v>15</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2841,13 @@
         <v>3603</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2850,10 +2859,10 @@
         <v>15</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2883,13 +2892,13 @@
         <v>2080241</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H31" s="7">
         <v>2823</v>
@@ -2898,13 +2907,13 @@
         <v>2173718</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M31" s="7">
         <v>4766</v>
@@ -2913,18 +2922,18 @@
         <v>4253959</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5">
         <v>15</v>
@@ -2957,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3008,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -3053,13 +3062,13 @@
         <v>2830</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -3110,7 +3119,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3158,10 +3167,10 @@
         <v>192</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -3170,13 +3179,13 @@
         <v>30471</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,7 +3257,7 @@
         <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="H38" s="7">
         <v>324</v>
@@ -3257,13 +3266,13 @@
         <v>246158</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M38" s="7">
         <v>563</v>
@@ -3272,13 +3281,13 @@
         <v>496710</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3302,13 @@
         <v>242960</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H39" s="7">
         <v>351</v>
@@ -3308,10 +3317,10 @@
         <v>233470</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>218</v>
@@ -3359,13 +3368,13 @@
         <v>91549</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M40" s="7">
         <v>234</v>
@@ -3374,13 +3383,13 @@
         <v>169572</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,7 +3425,7 @@
         <v>234</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="M41" s="7">
         <v>83</v>
@@ -3425,13 +3434,13 @@
         <v>65371</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3455,13 @@
         <v>6648</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="H42" s="7">
         <v>9</v>
@@ -3461,10 +3470,10 @@
         <v>6778</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>240</v>
@@ -3497,7 +3506,7 @@
         <v>1219</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
@@ -3512,7 +3521,7 @@
         <v>1737</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>17</v>
@@ -3527,10 +3536,10 @@
         <v>2956</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>246</v>
@@ -3569,7 +3578,7 @@
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3578,13 +3587,13 @@
         <v>622</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3608,13 @@
         <v>664286</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H45" s="7">
         <v>989</v>
@@ -3614,13 +3623,13 @@
         <v>703592</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M45" s="7">
         <v>1661</v>
@@ -3629,13 +3638,13 @@
         <v>1367878</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3661,13 @@
         <v>1557</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3673,7 +3682,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3682,13 +3691,13 @@
         <v>1557</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3712,13 @@
         <v>1099</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3724,7 +3733,7 @@
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -3733,7 +3742,7 @@
         <v>3160</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>187</v>
@@ -3754,13 +3763,13 @@
         <v>7381</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="H48" s="7">
         <v>13</v>
@@ -3769,13 +3778,13 @@
         <v>10938</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M48" s="7">
         <v>19</v>
@@ -3784,13 +3793,13 @@
         <v>18319</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P48" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="Q48" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,10 +3817,10 @@
         <v>14</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="H49" s="7">
         <v>7</v>
@@ -3820,13 +3829,13 @@
         <v>7000</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="M49" s="7">
         <v>10</v>
@@ -3838,10 +3847,10 @@
         <v>13</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,10 +3865,10 @@
         <v>120786</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>255</v>
@@ -3886,13 +3895,13 @@
         <v>195303</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3916,13 @@
         <v>291770</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H51" s="7">
         <v>350</v>
@@ -3922,13 +3931,13 @@
         <v>310771</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M51" s="7">
         <v>580</v>
@@ -3937,13 +3946,13 @@
         <v>602541</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3967,13 @@
         <v>1259604</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="H52" s="7">
         <v>1636</v>
@@ -3973,13 +3982,13 @@
         <v>1235465</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M52" s="7">
         <v>2811</v>
@@ -3988,13 +3997,13 @@
         <v>2495069</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4018,13 @@
         <v>957398</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H53" s="7">
         <v>1660</v>
@@ -4024,28 +4033,28 @@
         <v>1085618</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M53" s="7">
         <v>2742</v>
       </c>
       <c r="N53" s="7">
-        <v>2043016</v>
+        <v>2043015</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4069,13 @@
         <v>441432</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H54" s="7">
         <v>930</v>
@@ -4075,28 +4084,28 @@
         <v>652794</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M54" s="7">
         <v>1445</v>
       </c>
       <c r="N54" s="7">
-        <v>1094227</v>
+        <v>1094226</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4120,13 @@
         <v>134171</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>293</v>
+        <v>162</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H55" s="7">
         <v>357</v>
@@ -4126,13 +4135,13 @@
         <v>214824</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="M55" s="7">
         <v>516</v>
@@ -4141,13 +4150,13 @@
         <v>348995</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>44</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4171,13 @@
         <v>38005</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="H56" s="7">
         <v>104</v>
@@ -4177,13 +4186,13 @@
         <v>66066</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M56" s="7">
         <v>146</v>
@@ -4192,13 +4201,13 @@
         <v>104071</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4222,13 @@
         <v>8885</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>242</v>
+        <v>116</v>
       </c>
       <c r="H57" s="7">
         <v>22</v>
@@ -4228,13 +4237,13 @@
         <v>11702</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="M57" s="7">
         <v>32</v>
@@ -4243,13 +4252,13 @@
         <v>20587</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4273,13 @@
         <v>5018</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -4282,10 +4291,10 @@
         <v>14</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M58" s="7">
         <v>12</v>
@@ -4300,7 +4309,7 @@
         <v>17</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4324,13 @@
         <v>3270088</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H59" s="7">
         <v>5178</v>
@@ -4330,33 +4339,33 @@
         <v>3675131</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M59" s="7">
         <v>8465</v>
       </c>
       <c r="N59" s="7">
-        <v>6945219</v>
+        <v>6945218</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,11</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,32</t>
+          <t>7,12; 7,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,13</t>
+          <t>6,96; 7,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,18</t>
+          <t>7,05; 7,18</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>7,45</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,74</t>
+          <t>7,43; 8,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,34</t>
+          <t>6,84; 7,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,48</t>
+          <t>7,25; 7,95</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,31</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>7,33</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,41</t>
+          <t>7,2; 7,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,44</t>
+          <t>7,26; 7,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,4</t>
+          <t>7,26; 7,39</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>7,37</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,56</t>
+          <t>7,37; 8,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,28</t>
+          <t>6,94; 7,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,39</t>
+          <t>7,24; 7,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,33</t>
+          <t>7,11; 7,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,45</t>
+          <t>7,42; 8,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,31</t>
+          <t>6,85; 7,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,95</t>
+          <t>7,25; 7,9</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,4</t>
+          <t>7,21; 7,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,39</t>
+          <t>7,27; 7,4</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 8,16</t>
+          <t>7,36; 8,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,26</t>
+          <t>6,96; 7,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,76</t>
+          <t>7,23; 7,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y los fines de semana</t>
+          <t>Número medio de horas que duerme habitualmente al día durante los fines de semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
